--- a/biology/Botanique/Aegiphila_laevis/Aegiphila_laevis.xlsx
+++ b/biology/Botanique/Aegiphila_laevis/Aegiphila_laevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila laevis est une  espèce de liane arbustive néotropicale, appartenant à la famille des Lamiaceae (anciennement des Verbenaceae).
-On l'appelle au Suriname manprasara[4].
+On l'appelle au Suriname manprasara.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila laevis est une liane ou une arbuste, atteignant jusqu'à 4 m de haut. 
 Les branches sont sub-cylindrique, avec de l'indument comme sur les pétioles et les inflorescences sont pubescents. 
@@ -528,7 +542,7 @@
 Les anthères sont longues de 1 mm.
 L'ovaire est glabre, de forme subglobuleux, long de 1 mm, avec le style glabre, long de 4-8 mm y compris la bifurcation longue de 2-3 mm chez les fleurs à style court (les fleurs à style long ont un style de 15 mm de long y compris la bifurcation de 7 de long). 
 Lors de la fructification, le calice est cupuliforme, long de 6-8 mm pour 10 mm de diamètre. 
-Le fruit est de couleur jaune, terne, de forme oblongue-ellipsoïde, long de 10-12 mm pour 6-8 mm de diamètre[4].
+Le fruit est de couleur jaune, terne, de forme oblongue-ellipsoïde, long de 10-12 mm pour 6-8 mm de diamètre.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Aegiphila laevis de la Colombie[5], au Brésil (Amapá, Bahia, Mato Grosso) en passant par le Venezuela et les Guyanes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Aegiphila laevis de la Colombie, au Brésil (Amapá, Bahia, Mato Grosso) en passant par le Venezuela et les Guyanes.
 </t>
         </is>
       </c>
@@ -588,12 +604,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila laevis pousse dans les végétations secondaires et les lisières de forêts, jusqu'à 450 m d'altitude.
-Dans les Guyanes, elle fleurit de décembre à mars, et fructifie de mars à juin[4]. 
+Dans les Guyanes, elle fleurit de décembre à mars, et fructifie de mars à juin. 
 Les fleurs sont hétérostylées.
-Aegiphila laevis est une liane agrippant la végétation par enroulement de la tige principale[6].
+Aegiphila laevis est une liane agrippant la végétation par enroulement de la tige principale.
 </t>
         </is>
       </c>
@@ -622,9 +640,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet en a décrit pour la première fois Aegiphila laevis sous le nom de Manabea laeve et en a proposé le protologue suivant[7] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet en a décrit pour la première fois Aegiphila laevis sous le nom de Manabea laeve et en a proposé le protologue suivant : 
 « 3. MANABEA (laevis) foliis oblongo-ovatis, acuminatis (Tabula 25.) 
 Frutex octo-pedalis, caules plures, rectos, tetragonos, ramoſos, è radice emittens. Folia oppoſia, ovato-oblonga, acuminata. Flores ſubaxillares, corymboſi, corymbis oppoſitis pedicellis iingulis tripartitis. Bractæ gcminæ ad baſim ſingulorum ramorum. Flores in capitulum collecti.
 Perianthium monophyllum, campaniforme, limbo ſinuato.
